--- a/public/assets/categories_bulk_format.xlsx
+++ b/public/assets/categories_bulk_format.xlsx
@@ -1,17 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\xampp\htdocs\StackFood\public\assets\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1D51CB3-5E94-44DC-B12F-03522E5FF058}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>name</t>
   </si>
@@ -37,23 +46,10 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <sz val="15"/>
       <color indexed="8"/>
       <name val="Calibri"/>
     </font>
@@ -97,26 +93,14 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -125,24 +109,85 @@
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffaaaaaa"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFAAAAAA"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office Theme">
       <a:dk1>
@@ -344,7 +389,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -363,7 +408,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -393,7 +438,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -419,7 +464,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -445,7 +490,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -471,7 +516,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -497,7 +542,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -523,7 +568,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -549,7 +594,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -575,7 +620,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -601,7 +646,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -614,9 +659,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -633,7 +684,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -652,7 +703,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -678,7 +729,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -704,7 +755,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -730,7 +781,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -756,7 +807,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -782,7 +833,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -808,7 +859,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -834,7 +885,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -860,7 +911,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -886,7 +937,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -899,9 +950,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -915,7 +972,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -934,7 +991,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -964,7 +1021,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -990,7 +1047,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1016,7 +1073,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1042,7 +1099,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1068,7 +1125,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1094,7 +1151,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1120,7 +1177,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1146,7 +1203,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1172,7 +1229,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1185,57 +1242,65 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.8516" style="1" customWidth="1"/>
-    <col min="2" max="2" width="25.6719" style="1" customWidth="1"/>
-    <col min="3" max="6" width="29.8516" style="1" customWidth="1"/>
-    <col min="7" max="7" width="89.6719" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.85156" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.85156" style="1" customWidth="1"/>
+    <col min="1" max="1" width="21.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="25.625" style="1" customWidth="1"/>
+    <col min="3" max="6" width="29.875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="89.625" style="1" customWidth="1"/>
+    <col min="8" max="9" width="8.875" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.35" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:7" ht="15.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3"/>
     </row>
-    <row r="2" ht="15.35" customHeight="1">
+    <row r="2" spans="1:7" ht="15.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -1245,9 +1310,8 @@
       </c>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
     </row>
-    <row r="3" ht="15.35" customHeight="1">
+    <row r="3" spans="1:7" ht="15.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -1255,9 +1319,8 @@
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
     </row>
-    <row r="4" ht="15.35" customHeight="1">
+    <row r="4" spans="1:7" ht="15.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -1265,9 +1328,8 @@
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
     </row>
-    <row r="5" ht="15.35" customHeight="1">
+    <row r="5" spans="1:7" ht="15.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -1275,9 +1337,8 @@
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
     </row>
-    <row r="6" ht="15.35" customHeight="1">
+    <row r="6" spans="1:7" ht="15.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -1285,9 +1346,8 @@
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
     </row>
-    <row r="7" ht="15.35" customHeight="1">
+    <row r="7" spans="1:7" ht="15.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -1295,9 +1355,8 @@
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
     </row>
-    <row r="8" ht="15.35" customHeight="1">
+    <row r="8" spans="1:7" ht="15.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -1305,9 +1364,8 @@
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
     </row>
-    <row r="9" ht="15.35" customHeight="1">
+    <row r="9" spans="1:7" ht="15.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -1315,9 +1373,8 @@
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
     </row>
-    <row r="10" ht="15.35" customHeight="1">
+    <row r="10" spans="1:7" ht="15.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -1325,11 +1382,10 @@
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
